--- a/ml/is_valid/output.xlsx
+++ b/ml/is_valid/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сашер\Desktop\bitcoin-cost-predict-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сашер\Desktop\bitcoin-cost-predict-AI\ml\is_valid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1537,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1562,6 +1565,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1573,6 +1579,9 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1598,6 +1607,9 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1609,6 +1621,9 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1620,6 +1635,9 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1631,6 +1649,9 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1642,6 +1663,9 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1667,6 +1691,9 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1678,6 +1705,9 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1689,6 +1719,9 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1714,6 +1747,9 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1725,6 +1761,9 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1736,6 +1775,9 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1747,6 +1789,9 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1772,6 +1817,9 @@
       <c r="C22" t="s">
         <v>43</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1811,6 +1859,9 @@
       <c r="C25" t="s">
         <v>49</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1822,6 +1873,9 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1833,6 +1887,9 @@
       <c r="C27" t="s">
         <v>53</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1845,7 +1902,7 @@
         <v>55</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,6 +1915,9 @@
       <c r="C29" t="s">
         <v>57</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1869,6 +1929,9 @@
       <c r="C30" t="s">
         <v>59</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1880,6 +1943,9 @@
       <c r="C31" t="s">
         <v>61</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1891,6 +1957,9 @@
       <c r="C32" t="s">
         <v>63</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1902,6 +1971,9 @@
       <c r="C33" t="s">
         <v>65</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1913,6 +1985,9 @@
       <c r="C34" t="s">
         <v>67</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1924,6 +1999,9 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1935,6 +2013,9 @@
       <c r="C36" t="s">
         <v>67</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1946,6 +2027,9 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1957,6 +2041,9 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1982,6 +2069,9 @@
       <c r="C40" t="s">
         <v>78</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -1993,6 +2083,9 @@
       <c r="C41" t="s">
         <v>80</v>
       </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2004,6 +2097,9 @@
       <c r="C42" t="s">
         <v>63</v>
       </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2015,6 +2111,9 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -2026,6 +2125,9 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2037,6 +2139,9 @@
       <c r="C45" t="s">
         <v>21</v>
       </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -2048,6 +2153,9 @@
       <c r="C46" t="s">
         <v>67</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2059,6 +2167,9 @@
       <c r="C47" t="s">
         <v>89</v>
       </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -2070,6 +2181,9 @@
       <c r="C48" t="s">
         <v>91</v>
       </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -2081,6 +2195,9 @@
       <c r="C49" t="s">
         <v>93</v>
       </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -2092,6 +2209,9 @@
       <c r="C50" t="s">
         <v>95</v>
       </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -2131,6 +2251,9 @@
       <c r="C53" t="s">
         <v>101</v>
       </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -2142,6 +2265,9 @@
       <c r="C54" t="s">
         <v>103</v>
       </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -2153,6 +2279,9 @@
       <c r="C55" t="s">
         <v>103</v>
       </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2164,6 +2293,9 @@
       <c r="C56" t="s">
         <v>106</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2175,6 +2307,9 @@
       <c r="C57" t="s">
         <v>108</v>
       </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2200,6 +2335,9 @@
       <c r="C59" t="s">
         <v>112</v>
       </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -2211,6 +2349,9 @@
       <c r="C60" t="s">
         <v>114</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -2222,6 +2363,9 @@
       <c r="C61" t="s">
         <v>116</v>
       </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2233,6 +2377,9 @@
       <c r="C62" t="s">
         <v>118</v>
       </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2244,6 +2391,9 @@
       <c r="C63" t="s">
         <v>120</v>
       </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2255,6 +2405,9 @@
       <c r="C64" t="s">
         <v>122</v>
       </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -2266,6 +2419,9 @@
       <c r="C65" t="s">
         <v>124</v>
       </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -2277,6 +2433,9 @@
       <c r="C66" t="s">
         <v>126</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2288,6 +2447,9 @@
       <c r="C67" t="s">
         <v>128</v>
       </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -2299,6 +2461,9 @@
       <c r="C68" t="s">
         <v>130</v>
       </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2338,6 +2503,9 @@
       <c r="C71" t="s">
         <v>136</v>
       </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -2349,6 +2517,9 @@
       <c r="C72" t="s">
         <v>138</v>
       </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2360,6 +2531,9 @@
       <c r="C73" t="s">
         <v>140</v>
       </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -2385,6 +2559,9 @@
       <c r="C75" t="s">
         <v>144</v>
       </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -2396,6 +2573,9 @@
       <c r="C76" t="s">
         <v>146</v>
       </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -2407,6 +2587,9 @@
       <c r="C77" t="s">
         <v>148</v>
       </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -2418,6 +2601,9 @@
       <c r="C78" t="s">
         <v>150</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -2443,6 +2629,9 @@
       <c r="C80" t="s">
         <v>154</v>
       </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -2454,6 +2643,9 @@
       <c r="C81" t="s">
         <v>156</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2465,6 +2657,9 @@
       <c r="C82" t="s">
         <v>158</v>
       </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2476,6 +2671,9 @@
       <c r="C83" t="s">
         <v>160</v>
       </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2487,6 +2685,9 @@
       <c r="C84" t="s">
         <v>162</v>
       </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -2498,6 +2699,9 @@
       <c r="C85" t="s">
         <v>138</v>
       </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -2509,6 +2713,9 @@
       <c r="C86" t="s">
         <v>165</v>
       </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -2520,6 +2727,9 @@
       <c r="C87" t="s">
         <v>167</v>
       </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -2531,6 +2741,9 @@
       <c r="C88" t="s">
         <v>169</v>
       </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -2542,6 +2755,9 @@
       <c r="C89" t="s">
         <v>95</v>
       </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -2553,6 +2769,9 @@
       <c r="C90" t="s">
         <v>172</v>
       </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -2565,7 +2784,7 @@
         <v>174</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,6 +2797,9 @@
       <c r="C92" t="s">
         <v>176</v>
       </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -2589,6 +2811,9 @@
       <c r="C93" t="s">
         <v>178</v>
       </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -2600,6 +2825,9 @@
       <c r="C94" t="s">
         <v>180</v>
       </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -2611,6 +2839,9 @@
       <c r="C95" t="s">
         <v>182</v>
       </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2622,6 +2853,9 @@
       <c r="C96" t="s">
         <v>184</v>
       </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2647,6 +2881,9 @@
       <c r="C98" t="s">
         <v>188</v>
       </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -2700,6 +2937,9 @@
       <c r="C102" t="s">
         <v>196</v>
       </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -2711,6 +2951,9 @@
       <c r="C103" t="s">
         <v>198</v>
       </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -2722,6 +2965,9 @@
       <c r="C104" t="s">
         <v>200</v>
       </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -2733,6 +2979,9 @@
       <c r="C105" t="s">
         <v>202</v>
       </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -2758,6 +3007,9 @@
       <c r="C107" t="s">
         <v>206</v>
       </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -2769,6 +3021,9 @@
       <c r="C108" t="s">
         <v>208</v>
       </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -2780,6 +3035,9 @@
       <c r="C109" t="s">
         <v>210</v>
       </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -2805,6 +3063,9 @@
       <c r="C111" t="s">
         <v>214</v>
       </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -2830,6 +3091,9 @@
       <c r="C113" t="s">
         <v>218</v>
       </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -2855,6 +3119,9 @@
       <c r="C115" t="s">
         <v>222</v>
       </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -2866,6 +3133,9 @@
       <c r="C116" t="s">
         <v>224</v>
       </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -2877,6 +3147,9 @@
       <c r="C117" t="s">
         <v>226</v>
       </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -2902,6 +3175,9 @@
       <c r="C119" t="s">
         <v>230</v>
       </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -2913,6 +3189,9 @@
       <c r="C120" t="s">
         <v>232</v>
       </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -2924,6 +3203,9 @@
       <c r="C121" t="s">
         <v>234</v>
       </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -2963,6 +3245,9 @@
       <c r="C124" t="s">
         <v>240</v>
       </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -2974,6 +3259,9 @@
       <c r="C125" t="s">
         <v>242</v>
       </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -2985,6 +3273,9 @@
       <c r="C126" t="s">
         <v>244</v>
       </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -2996,6 +3287,9 @@
       <c r="C127" t="s">
         <v>246</v>
       </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -3007,6 +3301,9 @@
       <c r="C128" t="s">
         <v>248</v>
       </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -3018,6 +3315,9 @@
       <c r="C129" t="s">
         <v>250</v>
       </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -3029,6 +3329,9 @@
       <c r="C130" t="s">
         <v>252</v>
       </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -3040,6 +3343,9 @@
       <c r="C131" t="s">
         <v>254</v>
       </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -3051,6 +3357,9 @@
       <c r="C132" t="s">
         <v>256</v>
       </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -3062,6 +3371,9 @@
       <c r="C133" t="s">
         <v>258</v>
       </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -3087,6 +3399,9 @@
       <c r="C135" t="s">
         <v>262</v>
       </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -3098,6 +3413,9 @@
       <c r="C136" t="s">
         <v>264</v>
       </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -3109,6 +3427,9 @@
       <c r="C137" t="s">
         <v>266</v>
       </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -3120,6 +3441,9 @@
       <c r="C138" t="s">
         <v>268</v>
       </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -3131,6 +3455,9 @@
       <c r="C139" t="s">
         <v>270</v>
       </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -3170,6 +3497,9 @@
       <c r="C142" t="s">
         <v>276</v>
       </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -3195,6 +3525,9 @@
       <c r="C144" t="s">
         <v>280</v>
       </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -3206,6 +3539,9 @@
       <c r="C145" t="s">
         <v>282</v>
       </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -3245,6 +3581,9 @@
       <c r="C148" t="s">
         <v>288</v>
       </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -3256,6 +3595,9 @@
       <c r="C149" t="s">
         <v>290</v>
       </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -3267,6 +3609,9 @@
       <c r="C150" t="s">
         <v>292</v>
       </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -3278,6 +3623,9 @@
       <c r="C151" t="s">
         <v>138</v>
       </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -3289,6 +3637,9 @@
       <c r="C152" t="s">
         <v>295</v>
       </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -3300,6 +3651,9 @@
       <c r="C153" t="s">
         <v>297</v>
       </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -3325,6 +3679,9 @@
       <c r="C155" t="s">
         <v>301</v>
       </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -3336,6 +3693,9 @@
       <c r="C156" t="s">
         <v>303</v>
       </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -3347,6 +3707,9 @@
       <c r="C157" t="s">
         <v>138</v>
       </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -3358,6 +3721,9 @@
       <c r="C158" t="s">
         <v>306</v>
       </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -3369,6 +3735,9 @@
       <c r="C159" t="s">
         <v>308</v>
       </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -3380,6 +3749,9 @@
       <c r="C160" t="s">
         <v>310</v>
       </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -3391,6 +3763,9 @@
       <c r="C161" t="s">
         <v>138</v>
       </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
@@ -3402,6 +3777,9 @@
       <c r="C162" t="s">
         <v>313</v>
       </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
@@ -3413,6 +3791,9 @@
       <c r="C163" t="s">
         <v>315</v>
       </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
@@ -3424,6 +3805,9 @@
       <c r="C164" t="s">
         <v>317</v>
       </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -3435,6 +3819,9 @@
       <c r="C165" t="s">
         <v>319</v>
       </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
@@ -3446,6 +3833,9 @@
       <c r="C166" t="s">
         <v>321</v>
       </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -3457,6 +3847,9 @@
       <c r="C167" t="s">
         <v>323</v>
       </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
@@ -3482,6 +3875,9 @@
       <c r="C169" t="s">
         <v>327</v>
       </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
@@ -3493,6 +3889,9 @@
       <c r="C170" t="s">
         <v>329</v>
       </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -3504,6 +3903,9 @@
       <c r="C171" t="s">
         <v>331</v>
       </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
@@ -3515,6 +3917,9 @@
       <c r="C172" t="s">
         <v>333</v>
       </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -3526,6 +3931,9 @@
       <c r="C173" t="s">
         <v>335</v>
       </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
@@ -3537,6 +3945,9 @@
       <c r="C174" t="s">
         <v>337</v>
       </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -3548,6 +3959,9 @@
       <c r="C175" t="s">
         <v>339</v>
       </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -3559,6 +3973,9 @@
       <c r="C176" t="s">
         <v>341</v>
       </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -3570,6 +3987,9 @@
       <c r="C177" t="s">
         <v>343</v>
       </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -3581,6 +4001,9 @@
       <c r="C178" t="s">
         <v>345</v>
       </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
@@ -3606,6 +4029,9 @@
       <c r="C180" t="s">
         <v>349</v>
       </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -3617,6 +4043,9 @@
       <c r="C181" t="s">
         <v>351</v>
       </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -3656,6 +4085,9 @@
       <c r="C184" t="s">
         <v>357</v>
       </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
@@ -3667,6 +4099,9 @@
       <c r="C185" t="s">
         <v>359</v>
       </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -3678,6 +4113,9 @@
       <c r="C186" t="s">
         <v>361</v>
       </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -3689,6 +4127,9 @@
       <c r="C187" t="s">
         <v>363</v>
       </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
@@ -3727,6 +4168,9 @@
       </c>
       <c r="C190" t="s">
         <v>369</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
